--- a/suppl_files/supplementary_file1.xlsx
+++ b/suppl_files/supplementary_file1.xlsx
@@ -1602,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>350.527227245872</v>
+        <v>350.527227246001</v>
       </c>
     </row>
     <row r="3">
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>346.738840073074</v>
+        <v>346.738840073206</v>
       </c>
     </row>
     <row r="4">
@@ -1624,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>344.258004142348</v>
+        <v>344.258004142491</v>
       </c>
     </row>
     <row r="5">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>341.973085570238</v>
+        <v>341.973085570358</v>
       </c>
     </row>
     <row r="6">
@@ -1646,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>341.263921803481</v>
+        <v>341.263921803612</v>
       </c>
     </row>
     <row r="7">
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>340.105803422226</v>
+        <v>340.105803422337</v>
       </c>
     </row>
     <row r="8">
@@ -1668,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>339.715930732871</v>
+        <v>339.715930733002</v>
       </c>
     </row>
     <row r="9">
@@ -1679,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>339.643397569841</v>
+        <v>339.643397569971</v>
       </c>
     </row>
     <row r="10">
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>338.986316636374</v>
+        <v>338.986316636509</v>
       </c>
     </row>
     <row r="11">
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>337.865188054101</v>
+        <v>337.865188054225</v>
       </c>
     </row>
     <row r="12">
@@ -1712,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>337.153965699909</v>
+        <v>337.153965700035</v>
       </c>
     </row>
     <row r="13">
@@ -1723,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>336.48674093493</v>
+        <v>336.486740935052</v>
       </c>
     </row>
     <row r="14">
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>335.755578053068</v>
+        <v>335.755578053192</v>
       </c>
     </row>
     <row r="15">
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>334.753392196354</v>
+        <v>334.75339219647</v>
       </c>
     </row>
     <row r="16">
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>334.203817634624</v>
+        <v>334.203817634742</v>
       </c>
     </row>
     <row r="17">
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>334.027251907483</v>
+        <v>334.027251907615</v>
       </c>
     </row>
     <row r="18">
@@ -1778,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>333.970421728116</v>
+        <v>333.970421728248</v>
       </c>
     </row>
     <row r="19">
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>330.038219240726</v>
+        <v>330.038219240915</v>
       </c>
     </row>
     <row r="20">
@@ -1800,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>329.316243061413</v>
+        <v>329.316243061542</v>
       </c>
     </row>
     <row r="21">
@@ -1811,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>327.735274130689</v>
+        <v>327.735274130808</v>
       </c>
     </row>
     <row r="22">
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>327.578256878726</v>
+        <v>327.578256878844</v>
       </c>
     </row>
     <row r="23">
@@ -1833,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>326.311854591372</v>
+        <v>326.311854591492</v>
       </c>
     </row>
     <row r="24">
@@ -1844,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>326.08312114321</v>
+        <v>326.083121143355</v>
       </c>
     </row>
     <row r="25">
@@ -1855,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>325.500616227355</v>
+        <v>325.500616227468</v>
       </c>
     </row>
     <row r="26">
@@ -1866,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>325.198048294172</v>
+        <v>325.198048294275</v>
       </c>
     </row>
     <row r="27">
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>322.67674807974</v>
+        <v>322.676748079851</v>
       </c>
     </row>
     <row r="28">
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>321.592053289888</v>
+        <v>321.592053290008</v>
       </c>
     </row>
     <row r="29">
@@ -1899,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>321.196253302568</v>
+        <v>321.196253302687</v>
       </c>
     </row>
     <row r="30">
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>319.006167865165</v>
+        <v>319.006167865291</v>
       </c>
     </row>
     <row r="31">
@@ -1921,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>318.610257693548</v>
+        <v>318.610257693661</v>
       </c>
     </row>
     <row r="32">
@@ -1932,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>318.20208073169</v>
+        <v>318.202080731807</v>
       </c>
     </row>
     <row r="33">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>316.673197109866</v>
+        <v>316.673197109988</v>
       </c>
     </row>
     <row r="34">
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>316.20470609783</v>
+        <v>316.204706097949</v>
       </c>
     </row>
     <row r="35">
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>315.424409838747</v>
+        <v>315.424409838858</v>
       </c>
     </row>
     <row r="36">
@@ -1976,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>315.248552108889</v>
+        <v>315.248552109001</v>
       </c>
     </row>
     <row r="37">
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>314.876257986056</v>
+        <v>314.876257986177</v>
       </c>
     </row>
     <row r="38">
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>314.668175840871</v>
+        <v>314.668175840999</v>
       </c>
     </row>
     <row r="39">
@@ -2009,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>314.52469411929</v>
+        <v>314.524694119415</v>
       </c>
     </row>
     <row r="40">
@@ -2020,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>313.923059493691</v>
+        <v>313.92305949381</v>
       </c>
     </row>
     <row r="41">
@@ -2031,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>313.445119921578</v>
+        <v>313.445119921691</v>
       </c>
     </row>
     <row r="42">
@@ -2042,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>312.855986945016</v>
+        <v>312.855986945124</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>312.557844674468</v>
+        <v>312.55784467461</v>
       </c>
     </row>
     <row r="44">
@@ -2064,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>312.43340543131</v>
+        <v>312.433405431417</v>
       </c>
     </row>
     <row r="45">
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>312.352895768116</v>
+        <v>312.352895768231</v>
       </c>
     </row>
     <row r="46">
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>312.146721365781</v>
+        <v>312.146721365896</v>
       </c>
     </row>
     <row r="47">
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>310.699787378668</v>
+        <v>310.699787378825</v>
       </c>
     </row>
     <row r="48">
@@ -2108,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>310.474360244359</v>
+        <v>310.474360244485</v>
       </c>
     </row>
     <row r="49">
@@ -2119,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>309.613138219679</v>
+        <v>309.613138219818</v>
       </c>
     </row>
     <row r="50">
@@ -2130,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>308.798309962697</v>
+        <v>308.798309962822</v>
       </c>
     </row>
     <row r="51">
@@ -2141,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>308.32667594645</v>
+        <v>308.326675946561</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2177,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7386515796587</v>
+        <v>58.7386515797489</v>
       </c>
     </row>
     <row r="3">
@@ -2188,7 +2188,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>55.4291284459094</v>
+        <v>55.4291284460046</v>
       </c>
     </row>
     <row r="4">
@@ -2199,7 +2199,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>54.9244259293947</v>
+        <v>54.9244259294883</v>
       </c>
     </row>
     <row r="5">
@@ -2210,7 +2210,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>53.2307180757265</v>
+        <v>53.2307180758245</v>
       </c>
     </row>
     <row r="6">
@@ -2221,7 +2221,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>53.0461392015852</v>
+        <v>53.0461392016991</v>
       </c>
     </row>
     <row r="7">
@@ -2232,7 +2232,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>52.6118606365727</v>
+        <v>52.6118606366637</v>
       </c>
     </row>
     <row r="8">
@@ -2243,7 +2243,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="n">
-        <v>51.652607079704</v>
+        <v>51.6526070798155</v>
       </c>
     </row>
     <row r="9">
@@ -2254,7 +2254,7 @@
         <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>50.9276466912668</v>
+        <v>50.927646691392</v>
       </c>
     </row>
     <row r="10">
@@ -2265,7 +2265,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="n">
-        <v>50.7251219476921</v>
+        <v>50.7251219478284</v>
       </c>
     </row>
     <row r="11">
@@ -2276,7 +2276,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7658294892583</v>
+        <v>48.7658294893847</v>
       </c>
     </row>
     <row r="12">
@@ -2287,7 +2287,7 @@
         <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>48.4449851875639</v>
+        <v>48.4449851876778</v>
       </c>
     </row>
     <row r="13">
@@ -2298,7 +2298,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="n">
-        <v>47.9282433632594</v>
+        <v>47.9282433633191</v>
       </c>
     </row>
     <row r="14">
@@ -2309,7 +2309,7 @@
         <v>55</v>
       </c>
       <c r="C14" t="n">
-        <v>47.0462513979963</v>
+        <v>47.0462513981881</v>
       </c>
     </row>
     <row r="15">
@@ -2320,7 +2320,7 @@
         <v>55</v>
       </c>
       <c r="C15" t="n">
-        <v>47.0452890233774</v>
+        <v>47.0452890235788</v>
       </c>
     </row>
     <row r="16">
@@ -2331,7 +2331,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="n">
-        <v>46.5319677918761</v>
+        <v>46.5319677919882</v>
       </c>
     </row>
     <row r="17">
@@ -2342,7 +2342,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1479298629379</v>
+        <v>46.1479298630273</v>
       </c>
     </row>
     <row r="18">
@@ -2353,7 +2353,7 @@
         <v>55</v>
       </c>
       <c r="C18" t="n">
-        <v>45.5938296899459</v>
+        <v>45.5938296900005</v>
       </c>
     </row>
     <row r="19">
@@ -2364,7 +2364,7 @@
         <v>55</v>
       </c>
       <c r="C19" t="n">
-        <v>45.322869558061</v>
+        <v>45.3228695581389</v>
       </c>
     </row>
     <row r="20">
@@ -2375,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="C20" t="n">
-        <v>44.420347336373</v>
+        <v>44.4203473364612</v>
       </c>
     </row>
     <row r="21">
@@ -2386,7 +2386,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="n">
-        <v>44.3875021492424</v>
+        <v>44.3875021493565</v>
       </c>
     </row>
     <row r="22">
@@ -2397,7 +2397,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="n">
-        <v>44.364171121415</v>
+        <v>44.3641711215086</v>
       </c>
     </row>
     <row r="23">
@@ -2408,7 +2408,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="n">
-        <v>44.114482243125</v>
+        <v>44.1144822432435</v>
       </c>
     </row>
     <row r="24">
@@ -2419,7 +2419,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>43.8322301829917</v>
+        <v>43.8322301831513</v>
       </c>
     </row>
     <row r="25">
@@ -2430,7 +2430,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="n">
-        <v>43.6837741568726</v>
+        <v>43.6837741570058</v>
       </c>
     </row>
     <row r="26">
@@ -2441,7 +2441,7 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>43.5399110504775</v>
+        <v>43.539911050607</v>
       </c>
     </row>
     <row r="27">
@@ -2452,7 +2452,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>43.3640998855102</v>
+        <v>43.3640998855926</v>
       </c>
     </row>
     <row r="28">
@@ -2463,7 +2463,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="n">
-        <v>43.1380606629026</v>
+        <v>43.1380606629865</v>
       </c>
     </row>
     <row r="29">
@@ -2474,7 +2474,7 @@
         <v>55</v>
       </c>
       <c r="C29" t="n">
-        <v>42.9391706341584</v>
+        <v>42.939170634293</v>
       </c>
     </row>
     <row r="30">
@@ -2485,7 +2485,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>42.7903171359184</v>
+        <v>42.7903171359532</v>
       </c>
     </row>
     <row r="31">
@@ -2496,7 +2496,7 @@
         <v>55</v>
       </c>
       <c r="C31" t="n">
-        <v>42.6299157683298</v>
+        <v>42.6299157684649</v>
       </c>
     </row>
     <row r="32">
@@ -2507,7 +2507,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="n">
-        <v>42.2289608770063</v>
+        <v>42.22896087712</v>
       </c>
     </row>
     <row r="33">
@@ -2518,7 +2518,7 @@
         <v>55</v>
       </c>
       <c r="C33" t="n">
-        <v>41.9978162570024</v>
+        <v>41.9978162570948</v>
       </c>
     </row>
     <row r="34">
@@ -2529,7 +2529,7 @@
         <v>55</v>
       </c>
       <c r="C34" t="n">
-        <v>41.5344707545583</v>
+        <v>41.5344707546838</v>
       </c>
     </row>
     <row r="35">
@@ -2540,7 +2540,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="n">
-        <v>41.4514380111365</v>
+        <v>41.4514380111917</v>
       </c>
     </row>
     <row r="36">
@@ -2551,7 +2551,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="n">
-        <v>40.9400423257449</v>
+        <v>40.940042325819</v>
       </c>
     </row>
     <row r="37">
@@ -2562,7 +2562,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>40.6499072741871</v>
+        <v>40.6499072743069</v>
       </c>
     </row>
     <row r="38">
@@ -2573,7 +2573,7 @@
         <v>55</v>
       </c>
       <c r="C38" t="n">
-        <v>40.5110549177888</v>
+        <v>40.5110549178532</v>
       </c>
     </row>
     <row r="39">
@@ -2584,7 +2584,7 @@
         <v>55</v>
       </c>
       <c r="C39" t="n">
-        <v>40.3040394002963</v>
+        <v>40.3040394003774</v>
       </c>
     </row>
     <row r="40">
@@ -2595,7 +2595,7 @@
         <v>55</v>
       </c>
       <c r="C40" t="n">
-        <v>40.2465867451514</v>
+        <v>40.2465867451953</v>
       </c>
     </row>
     <row r="41">
@@ -2606,7 +2606,7 @@
         <v>55</v>
       </c>
       <c r="C41" t="n">
-        <v>39.534170167276</v>
+        <v>39.5341701673432</v>
       </c>
     </row>
     <row r="42">
@@ -2617,7 +2617,7 @@
         <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>39.4831279564421</v>
+        <v>39.4831279565491</v>
       </c>
     </row>
     <row r="43">
@@ -2628,7 +2628,7 @@
         <v>55</v>
       </c>
       <c r="C43" t="n">
-        <v>39.3181748018199</v>
+        <v>39.3181748018715</v>
       </c>
     </row>
     <row r="44">
@@ -2639,7 +2639,7 @@
         <v>55</v>
       </c>
       <c r="C44" t="n">
-        <v>39.1772856698471</v>
+        <v>39.1772856699405</v>
       </c>
     </row>
     <row r="45">
@@ -2650,7 +2650,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="n">
-        <v>38.8208343066265</v>
+        <v>38.8208343067589</v>
       </c>
     </row>
     <row r="46">
@@ -2661,7 +2661,7 @@
         <v>55</v>
       </c>
       <c r="C46" t="n">
-        <v>38.7031844764784</v>
+        <v>38.7031844765416</v>
       </c>
     </row>
     <row r="47">
@@ -2672,7 +2672,7 @@
         <v>55</v>
       </c>
       <c r="C47" t="n">
-        <v>38.6091081263037</v>
+        <v>38.609108126412</v>
       </c>
     </row>
     <row r="48">
@@ -2683,7 +2683,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="n">
-        <v>37.9686029092715</v>
+        <v>37.9686029094</v>
       </c>
     </row>
     <row r="49">
@@ -2694,7 +2694,7 @@
         <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>37.9329221135831</v>
+        <v>37.9329221137185</v>
       </c>
     </row>
     <row r="50">
@@ -2705,7 +2705,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="n">
-        <v>37.615064726669</v>
+        <v>37.6150647267314</v>
       </c>
     </row>
     <row r="51">
@@ -2716,7 +2716,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>37.4217454231397</v>
+        <v>37.4217454232091</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2752,7 @@
         <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>1025.71900287</v>
+        <v>1025.71900287058</v>
       </c>
     </row>
     <row r="3">
@@ -2763,7 +2763,7 @@
         <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>1016.07155970116</v>
+        <v>1016.07155970178</v>
       </c>
     </row>
     <row r="4">
@@ -2774,7 +2774,7 @@
         <v>106</v>
       </c>
       <c r="C4" t="n">
-        <v>1013.92685540593</v>
+        <v>1013.92685540655</v>
       </c>
     </row>
     <row r="5">
@@ -2785,7 +2785,7 @@
         <v>106</v>
       </c>
       <c r="C5" t="n">
-        <v>1007.06332182955</v>
+        <v>1007.06332183026</v>
       </c>
     </row>
     <row r="6">
@@ -2796,7 +2796,7 @@
         <v>106</v>
       </c>
       <c r="C6" t="n">
-        <v>1005.84044238234</v>
+        <v>1005.84044238289</v>
       </c>
     </row>
     <row r="7">
@@ -2807,7 +2807,7 @@
         <v>106</v>
       </c>
       <c r="C7" t="n">
-        <v>1005.17052960745</v>
+        <v>1005.17052960809</v>
       </c>
     </row>
     <row r="8">
@@ -2818,7 +2818,7 @@
         <v>106</v>
       </c>
       <c r="C8" t="n">
-        <v>1004.86586727403</v>
+        <v>1004.86586727463</v>
       </c>
     </row>
     <row r="9">
@@ -2829,7 +2829,7 @@
         <v>106</v>
       </c>
       <c r="C9" t="n">
-        <v>998.989714267507</v>
+        <v>998.989714268116</v>
       </c>
     </row>
     <row r="10">
@@ -2840,7 +2840,7 @@
         <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>996.381339867496</v>
+        <v>996.381339868022</v>
       </c>
     </row>
     <row r="11">
@@ -2851,7 +2851,7 @@
         <v>106</v>
       </c>
       <c r="C11" t="n">
-        <v>988.287383280182</v>
+        <v>988.287383280755</v>
       </c>
     </row>
     <row r="12">
@@ -2862,7 +2862,7 @@
         <v>106</v>
       </c>
       <c r="C12" t="n">
-        <v>987.506785325022</v>
+        <v>987.506785325814</v>
       </c>
     </row>
     <row r="13">
@@ -2873,7 +2873,7 @@
         <v>106</v>
       </c>
       <c r="C13" t="n">
-        <v>986.761604442596</v>
+        <v>986.761604443209</v>
       </c>
     </row>
     <row r="14">
@@ -2884,7 +2884,7 @@
         <v>106</v>
       </c>
       <c r="C14" t="n">
-        <v>986.506949257684</v>
+        <v>986.506949258243</v>
       </c>
     </row>
     <row r="15">
@@ -2895,7 +2895,7 @@
         <v>106</v>
       </c>
       <c r="C15" t="n">
-        <v>986.445860968612</v>
+        <v>986.445860969358</v>
       </c>
     </row>
     <row r="16">
@@ -2906,7 +2906,7 @@
         <v>106</v>
       </c>
       <c r="C16" t="n">
-        <v>984.883255501982</v>
+        <v>984.88325550253</v>
       </c>
     </row>
     <row r="17">
@@ -2917,7 +2917,7 @@
         <v>106</v>
       </c>
       <c r="C17" t="n">
-        <v>981.907765438576</v>
+        <v>981.907765439231</v>
       </c>
     </row>
     <row r="18">
@@ -2928,7 +2928,7 @@
         <v>106</v>
       </c>
       <c r="C18" t="n">
-        <v>980.906967864083</v>
+        <v>980.906967864596</v>
       </c>
     </row>
     <row r="19">
@@ -2939,7 +2939,7 @@
         <v>106</v>
       </c>
       <c r="C19" t="n">
-        <v>978.815196597575</v>
+        <v>978.815196598385</v>
       </c>
     </row>
     <row r="20">
@@ -2950,7 +2950,7 @@
         <v>106</v>
       </c>
       <c r="C20" t="n">
-        <v>978.207899584424</v>
+        <v>978.207899585063</v>
       </c>
     </row>
     <row r="21">
@@ -2961,7 +2961,7 @@
         <v>106</v>
       </c>
       <c r="C21" t="n">
-        <v>977.876765193994</v>
+        <v>977.876765194645</v>
       </c>
     </row>
     <row r="22">
@@ -2972,7 +2972,7 @@
         <v>106</v>
       </c>
       <c r="C22" t="n">
-        <v>977.664247212928</v>
+        <v>977.664247213593</v>
       </c>
     </row>
     <row r="23">
@@ -2983,7 +2983,7 @@
         <v>106</v>
       </c>
       <c r="C23" t="n">
-        <v>977.590396603353</v>
+        <v>977.590396603971</v>
       </c>
     </row>
     <row r="24">
@@ -2994,7 +2994,7 @@
         <v>106</v>
       </c>
       <c r="C24" t="n">
-        <v>977.130203804654</v>
+        <v>977.130203805158</v>
       </c>
     </row>
     <row r="25">
@@ -3005,7 +3005,7 @@
         <v>106</v>
       </c>
       <c r="C25" t="n">
-        <v>976.28818555725</v>
+        <v>976.288185557949</v>
       </c>
     </row>
     <row r="26">
@@ -3016,7 +3016,7 @@
         <v>106</v>
       </c>
       <c r="C26" t="n">
-        <v>975.06789016802</v>
+        <v>975.067890168512</v>
       </c>
     </row>
     <row r="27">
@@ -3027,7 +3027,7 @@
         <v>106</v>
       </c>
       <c r="C27" t="n">
-        <v>974.933507405502</v>
+        <v>974.933507406111</v>
       </c>
     </row>
     <row r="28">
@@ -3038,7 +3038,7 @@
         <v>106</v>
       </c>
       <c r="C28" t="n">
-        <v>972.73801583614</v>
+        <v>972.738015836604</v>
       </c>
     </row>
     <row r="29">
@@ -3049,7 +3049,7 @@
         <v>106</v>
       </c>
       <c r="C29" t="n">
-        <v>971.999626131279</v>
+        <v>971.999626131864</v>
       </c>
     </row>
     <row r="30">
@@ -3060,7 +3060,7 @@
         <v>106</v>
       </c>
       <c r="C30" t="n">
-        <v>970.80175894218</v>
+        <v>970.801758942834</v>
       </c>
     </row>
     <row r="31">
@@ -3071,7 +3071,7 @@
         <v>106</v>
       </c>
       <c r="C31" t="n">
-        <v>970.223681932506</v>
+        <v>970.223681933111</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>106</v>
       </c>
       <c r="C32" t="n">
-        <v>970.131723900854</v>
+        <v>970.131723901379</v>
       </c>
     </row>
     <row r="33">
@@ -3093,7 +3093,7 @@
         <v>106</v>
       </c>
       <c r="C33" t="n">
-        <v>967.819809741259</v>
+        <v>967.819809741991</v>
       </c>
     </row>
     <row r="34">
@@ -3104,7 +3104,7 @@
         <v>106</v>
       </c>
       <c r="C34" t="n">
-        <v>966.949625287967</v>
+        <v>966.949625288573</v>
       </c>
     </row>
     <row r="35">
@@ -3115,7 +3115,7 @@
         <v>106</v>
       </c>
       <c r="C35" t="n">
-        <v>965.185920206587</v>
+        <v>965.185920207293</v>
       </c>
     </row>
     <row r="36">
@@ -3126,7 +3126,7 @@
         <v>106</v>
       </c>
       <c r="C36" t="n">
-        <v>963.581825211841</v>
+        <v>963.581825212586</v>
       </c>
     </row>
     <row r="37">
@@ -3137,7 +3137,7 @@
         <v>106</v>
       </c>
       <c r="C37" t="n">
-        <v>962.976455483857</v>
+        <v>962.976455484608</v>
       </c>
     </row>
     <row r="38">
@@ -3148,7 +3148,7 @@
         <v>106</v>
       </c>
       <c r="C38" t="n">
-        <v>961.86662872286</v>
+        <v>961.866628723397</v>
       </c>
     </row>
     <row r="39">
@@ -3159,7 +3159,7 @@
         <v>106</v>
       </c>
       <c r="C39" t="n">
-        <v>961.295034973274</v>
+        <v>961.295034973893</v>
       </c>
     </row>
     <row r="40">
@@ -3170,7 +3170,7 @@
         <v>106</v>
       </c>
       <c r="C40" t="n">
-        <v>960.921132392821</v>
+        <v>960.921132393508</v>
       </c>
     </row>
     <row r="41">
@@ -3181,7 +3181,7 @@
         <v>106</v>
       </c>
       <c r="C41" t="n">
-        <v>960.569774681557</v>
+        <v>960.569774682275</v>
       </c>
     </row>
     <row r="42">
@@ -3192,7 +3192,7 @@
         <v>106</v>
       </c>
       <c r="C42" t="n">
-        <v>959.45561882235</v>
+        <v>959.455618823063</v>
       </c>
     </row>
     <row r="43">
@@ -3203,7 +3203,7 @@
         <v>106</v>
       </c>
       <c r="C43" t="n">
-        <v>957.287960265698</v>
+        <v>957.287960266424</v>
       </c>
     </row>
     <row r="44">
@@ -3214,7 +3214,7 @@
         <v>106</v>
       </c>
       <c r="C44" t="n">
-        <v>956.370298681847</v>
+        <v>956.370298682582</v>
       </c>
     </row>
     <row r="45">
@@ -3225,7 +3225,7 @@
         <v>106</v>
       </c>
       <c r="C45" t="n">
-        <v>955.975939146547</v>
+        <v>955.975939147198</v>
       </c>
     </row>
     <row r="46">
@@ -3236,7 +3236,7 @@
         <v>106</v>
       </c>
       <c r="C46" t="n">
-        <v>954.897548145337</v>
+        <v>954.89754814588</v>
       </c>
     </row>
     <row r="47">
@@ -3247,7 +3247,7 @@
         <v>106</v>
       </c>
       <c r="C47" t="n">
-        <v>953.769512067863</v>
+        <v>953.769512068455</v>
       </c>
     </row>
     <row r="48">
@@ -3258,7 +3258,7 @@
         <v>106</v>
       </c>
       <c r="C48" t="n">
-        <v>952.918602347723</v>
+        <v>952.918602348409</v>
       </c>
     </row>
     <row r="49">
@@ -3269,7 +3269,7 @@
         <v>106</v>
       </c>
       <c r="C49" t="n">
-        <v>951.230683605535</v>
+        <v>951.230683606244</v>
       </c>
     </row>
     <row r="50">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="C50" t="n">
-        <v>950.961643336909</v>
+        <v>950.961643337435</v>
       </c>
     </row>
     <row r="51">
@@ -3291,7 +3291,7 @@
         <v>106</v>
       </c>
       <c r="C51" t="n">
-        <v>949.950355552202</v>
+        <v>949.950355552708</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3327,7 @@
         <v>157</v>
       </c>
       <c r="C2" t="n">
-        <v>33.5611240482835</v>
+        <v>33.5611240482787</v>
       </c>
     </row>
     <row r="3">
@@ -3338,7 +3338,7 @@
         <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>33.2453180773386</v>
+        <v>33.2453180773383</v>
       </c>
     </row>
     <row r="4">
@@ -3349,7 +3349,7 @@
         <v>157</v>
       </c>
       <c r="C4" t="n">
-        <v>32.8481374506713</v>
+        <v>32.8481374506616</v>
       </c>
     </row>
     <row r="5">
@@ -3360,7 +3360,7 @@
         <v>157</v>
       </c>
       <c r="C5" t="n">
-        <v>32.7397951867883</v>
+        <v>32.7397951867925</v>
       </c>
     </row>
     <row r="6">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="C6" t="n">
-        <v>32.4908661853641</v>
+        <v>32.4908661853509</v>
       </c>
     </row>
     <row r="7">
@@ -3382,7 +3382,7 @@
         <v>157</v>
       </c>
       <c r="C7" t="n">
-        <v>32.3084244278941</v>
+        <v>32.3084244278883</v>
       </c>
     </row>
     <row r="8">
@@ -3393,7 +3393,7 @@
         <v>157</v>
       </c>
       <c r="C8" t="n">
-        <v>30.9615924167118</v>
+        <v>30.9615924166994</v>
       </c>
     </row>
     <row r="9">
@@ -3404,7 +3404,7 @@
         <v>157</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3985610528957</v>
+        <v>30.3985610528857</v>
       </c>
     </row>
     <row r="10">
@@ -3415,7 +3415,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="n">
-        <v>30.1914850383811</v>
+        <v>30.1914850383685</v>
       </c>
     </row>
     <row r="11">
@@ -3426,7 +3426,7 @@
         <v>157</v>
       </c>
       <c r="C11" t="n">
-        <v>30.014787049562</v>
+        <v>30.0147870495557</v>
       </c>
     </row>
     <row r="12">
@@ -3437,7 +3437,7 @@
         <v>157</v>
       </c>
       <c r="C12" t="n">
-        <v>29.7573477347398</v>
+        <v>29.7573477347259</v>
       </c>
     </row>
     <row r="13">
@@ -3448,7 +3448,7 @@
         <v>157</v>
       </c>
       <c r="C13" t="n">
-        <v>29.5544551156182</v>
+        <v>29.5544551156151</v>
       </c>
     </row>
     <row r="14">
@@ -3459,7 +3459,7 @@
         <v>157</v>
       </c>
       <c r="C14" t="n">
-        <v>28.7021686776823</v>
+        <v>28.7021686776822</v>
       </c>
     </row>
     <row r="15">
@@ -3470,7 +3470,7 @@
         <v>157</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6281249561466</v>
+        <v>28.6281249561198</v>
       </c>
     </row>
     <row r="16">
@@ -3481,7 +3481,7 @@
         <v>157</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4665016434544</v>
+        <v>28.4665016434413</v>
       </c>
     </row>
     <row r="17">
@@ -3492,7 +3492,7 @@
         <v>157</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5399868463075</v>
+        <v>27.5399868462956</v>
       </c>
     </row>
     <row r="18">
@@ -3503,7 +3503,7 @@
         <v>157</v>
       </c>
       <c r="C18" t="n">
-        <v>27.3041682462273</v>
+        <v>27.3041682462184</v>
       </c>
     </row>
     <row r="19">
@@ -3514,7 +3514,7 @@
         <v>157</v>
       </c>
       <c r="C19" t="n">
-        <v>26.8890325163438</v>
+        <v>26.8890325163471</v>
       </c>
     </row>
     <row r="20">
@@ -3525,7 +3525,7 @@
         <v>157</v>
       </c>
       <c r="C20" t="n">
-        <v>26.3637119470078</v>
+        <v>26.363711947003</v>
       </c>
     </row>
     <row r="21">
@@ -3536,7 +3536,7 @@
         <v>157</v>
       </c>
       <c r="C21" t="n">
-        <v>25.9294742003326</v>
+        <v>25.9294742003261</v>
       </c>
     </row>
     <row r="22">
@@ -3547,7 +3547,7 @@
         <v>157</v>
       </c>
       <c r="C22" t="n">
-        <v>24.9462494178127</v>
+        <v>24.9462494178011</v>
       </c>
     </row>
     <row r="23">
@@ -3558,7 +3558,7 @@
         <v>157</v>
       </c>
       <c r="C23" t="n">
-        <v>24.5459035841614</v>
+        <v>24.5459035841568</v>
       </c>
     </row>
     <row r="24">
@@ -3569,7 +3569,7 @@
         <v>157</v>
       </c>
       <c r="C24" t="n">
-        <v>24.4809912986093</v>
+        <v>24.4809912986</v>
       </c>
     </row>
     <row r="25">
@@ -3580,7 +3580,7 @@
         <v>157</v>
       </c>
       <c r="C25" t="n">
-        <v>24.3764992128614</v>
+        <v>24.3764992128544</v>
       </c>
     </row>
     <row r="26">
@@ -3591,7 +3591,7 @@
         <v>157</v>
       </c>
       <c r="C26" t="n">
-        <v>23.6184187796264</v>
+        <v>23.6184187796118</v>
       </c>
     </row>
     <row r="27">
@@ -3602,7 +3602,7 @@
         <v>157</v>
       </c>
       <c r="C27" t="n">
-        <v>23.610866310978</v>
+        <v>23.6108663109674</v>
       </c>
     </row>
     <row r="28">
@@ -3613,7 +3613,7 @@
         <v>157</v>
       </c>
       <c r="C28" t="n">
-        <v>23.5121119130223</v>
+        <v>23.5121119130183</v>
       </c>
     </row>
     <row r="29">
@@ -3624,7 +3624,7 @@
         <v>157</v>
       </c>
       <c r="C29" t="n">
-        <v>22.7189545698658</v>
+        <v>22.7189545698598</v>
       </c>
     </row>
     <row r="30">
@@ -3635,7 +3635,7 @@
         <v>157</v>
       </c>
       <c r="C30" t="n">
-        <v>22.7129067864293</v>
+        <v>22.7129067864242</v>
       </c>
     </row>
     <row r="31">
@@ -3646,7 +3646,7 @@
         <v>157</v>
       </c>
       <c r="C31" t="n">
-        <v>22.4674589389801</v>
+        <v>22.467458938966</v>
       </c>
     </row>
     <row r="32">
@@ -3657,7 +3657,7 @@
         <v>157</v>
       </c>
       <c r="C32" t="n">
-        <v>21.4848372838168</v>
+        <v>21.4848372838117</v>
       </c>
     </row>
     <row r="33">
@@ -3668,7 +3668,7 @@
         <v>157</v>
       </c>
       <c r="C33" t="n">
-        <v>21.4241830149612</v>
+        <v>21.4241830149647</v>
       </c>
     </row>
     <row r="34">
@@ -3679,7 +3679,7 @@
         <v>157</v>
       </c>
       <c r="C34" t="n">
-        <v>21.0733543928564</v>
+        <v>21.0733543928445</v>
       </c>
     </row>
     <row r="35">
@@ -3690,7 +3690,7 @@
         <v>157</v>
       </c>
       <c r="C35" t="n">
-        <v>20.8099521286318</v>
+        <v>20.8099521286126</v>
       </c>
     </row>
     <row r="36">
@@ -3701,7 +3701,7 @@
         <v>157</v>
       </c>
       <c r="C36" t="n">
-        <v>20.6615060439017</v>
+        <v>20.6615060438833</v>
       </c>
     </row>
     <row r="37">
@@ -3712,7 +3712,7 @@
         <v>157</v>
       </c>
       <c r="C37" t="n">
-        <v>20.6309142149057</v>
+        <v>20.6309142148982</v>
       </c>
     </row>
     <row r="38">
@@ -3723,7 +3723,7 @@
         <v>157</v>
       </c>
       <c r="C38" t="n">
-        <v>20.6223579664842</v>
+        <v>20.6223579664838</v>
       </c>
     </row>
     <row r="39">
@@ -3734,7 +3734,7 @@
         <v>157</v>
       </c>
       <c r="C39" t="n">
-        <v>19.579222363712</v>
+        <v>19.5792223636945</v>
       </c>
     </row>
     <row r="40">
@@ -3745,7 +3745,7 @@
         <v>157</v>
       </c>
       <c r="C40" t="n">
-        <v>19.0327883139793</v>
+        <v>19.0327883139649</v>
       </c>
     </row>
     <row r="41">
@@ -3756,7 +3756,7 @@
         <v>157</v>
       </c>
       <c r="C41" t="n">
-        <v>18.864956640402</v>
+        <v>18.8649566403912</v>
       </c>
     </row>
     <row r="42">
@@ -3767,7 +3767,7 @@
         <v>157</v>
       </c>
       <c r="C42" t="n">
-        <v>18.7471267134561</v>
+        <v>18.7471267134478</v>
       </c>
     </row>
     <row r="43">
@@ -3778,7 +3778,7 @@
         <v>157</v>
       </c>
       <c r="C43" t="n">
-        <v>18.5747514687865</v>
+        <v>18.5747514687834</v>
       </c>
     </row>
     <row r="44">
@@ -3789,7 +3789,7 @@
         <v>157</v>
       </c>
       <c r="C44" t="n">
-        <v>18.0087234479825</v>
+        <v>18.0087234479665</v>
       </c>
     </row>
     <row r="45">
@@ -3800,7 +3800,7 @@
         <v>157</v>
       </c>
       <c r="C45" t="n">
-        <v>17.8291215140488</v>
+        <v>17.8291215140535</v>
       </c>
     </row>
     <row r="46">
@@ -3811,7 +3811,7 @@
         <v>157</v>
       </c>
       <c r="C46" t="n">
-        <v>17.7741506761715</v>
+        <v>17.7741506761706</v>
       </c>
     </row>
     <row r="47">
@@ -3822,7 +3822,7 @@
         <v>157</v>
       </c>
       <c r="C47" t="n">
-        <v>17.7678194347152</v>
+        <v>17.7678194347291</v>
       </c>
     </row>
     <row r="48">
@@ -3833,7 +3833,7 @@
         <v>157</v>
       </c>
       <c r="C48" t="n">
-        <v>17.675805753828</v>
+        <v>17.6758057538222</v>
       </c>
     </row>
     <row r="49">
@@ -3844,7 +3844,7 @@
         <v>157</v>
       </c>
       <c r="C49" t="n">
-        <v>17.4723016310022</v>
+        <v>17.4723016309937</v>
       </c>
     </row>
     <row r="50">
@@ -3855,7 +3855,7 @@
         <v>157</v>
       </c>
       <c r="C50" t="n">
-        <v>17.468230055237</v>
+        <v>17.4682300552324</v>
       </c>
     </row>
     <row r="51">
@@ -3866,7 +3866,7 @@
         <v>157</v>
       </c>
       <c r="C51" t="n">
-        <v>17.4025656661087</v>
+        <v>17.4025656661077</v>
       </c>
     </row>
   </sheetData>
@@ -3902,7 +3902,7 @@
         <v>208</v>
       </c>
       <c r="C2" t="n">
-        <v>128.879122124913</v>
+        <v>128.879122125234</v>
       </c>
     </row>
     <row r="3">
@@ -3913,7 +3913,7 @@
         <v>208</v>
       </c>
       <c r="C3" t="n">
-        <v>118.93085154755</v>
+        <v>118.930851547831</v>
       </c>
     </row>
     <row r="4">
@@ -3924,7 +3924,7 @@
         <v>208</v>
       </c>
       <c r="C4" t="n">
-        <v>118.066180386171</v>
+        <v>118.06618038655</v>
       </c>
     </row>
     <row r="5">
@@ -3935,7 +3935,7 @@
         <v>208</v>
       </c>
       <c r="C5" t="n">
-        <v>111.047208819184</v>
+        <v>111.047208819444</v>
       </c>
     </row>
     <row r="6">
@@ -3946,7 +3946,7 @@
         <v>208</v>
       </c>
       <c r="C6" t="n">
-        <v>110.586424274822</v>
+        <v>110.586424275166</v>
       </c>
     </row>
     <row r="7">
@@ -3957,7 +3957,7 @@
         <v>208</v>
       </c>
       <c r="C7" t="n">
-        <v>110.226649487438</v>
+        <v>110.226649487576</v>
       </c>
     </row>
     <row r="8">
@@ -3968,7 +3968,7 @@
         <v>208</v>
       </c>
       <c r="C8" t="n">
-        <v>109.904815843939</v>
+        <v>109.904815844299</v>
       </c>
     </row>
     <row r="9">
@@ -3979,7 +3979,7 @@
         <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>109.366286963282</v>
+        <v>109.36628696357</v>
       </c>
     </row>
     <row r="10">
@@ -3990,7 +3990,7 @@
         <v>208</v>
       </c>
       <c r="C10" t="n">
-        <v>109.206267968983</v>
+        <v>109.206267969308</v>
       </c>
     </row>
     <row r="11">
@@ -4001,7 +4001,7 @@
         <v>208</v>
       </c>
       <c r="C11" t="n">
-        <v>109.052618451002</v>
+        <v>109.052618451227</v>
       </c>
     </row>
     <row r="12">
@@ -4012,7 +4012,7 @@
         <v>208</v>
       </c>
       <c r="C12" t="n">
-        <v>108.769166197719</v>
+        <v>108.769166198146</v>
       </c>
     </row>
     <row r="13">
@@ -4023,7 +4023,7 @@
         <v>208</v>
       </c>
       <c r="C13" t="n">
-        <v>108.156025763929</v>
+        <v>108.156025764278</v>
       </c>
     </row>
     <row r="14">
@@ -4034,7 +4034,7 @@
         <v>208</v>
       </c>
       <c r="C14" t="n">
-        <v>107.432740929337</v>
+        <v>107.432740929658</v>
       </c>
     </row>
     <row r="15">
@@ -4045,7 +4045,7 @@
         <v>208</v>
       </c>
       <c r="C15" t="n">
-        <v>106.866458937542</v>
+        <v>106.86645893793</v>
       </c>
     </row>
     <row r="16">
@@ -4056,7 +4056,7 @@
         <v>208</v>
       </c>
       <c r="C16" t="n">
-        <v>103.781913241164</v>
+        <v>103.781913241419</v>
       </c>
     </row>
     <row r="17">
@@ -4067,7 +4067,7 @@
         <v>208</v>
       </c>
       <c r="C17" t="n">
-        <v>103.403787273071</v>
+        <v>103.403787273371</v>
       </c>
     </row>
     <row r="18">
@@ -4078,7 +4078,7 @@
         <v>208</v>
       </c>
       <c r="C18" t="n">
-        <v>103.324743100819</v>
+        <v>103.324743101165</v>
       </c>
     </row>
     <row r="19">
@@ -4089,7 +4089,7 @@
         <v>208</v>
       </c>
       <c r="C19" t="n">
-        <v>102.864215762785</v>
+        <v>102.864215763359</v>
       </c>
     </row>
     <row r="20">
@@ -4100,7 +4100,7 @@
         <v>208</v>
       </c>
       <c r="C20" t="n">
-        <v>102.128536583546</v>
+        <v>102.128536583896</v>
       </c>
     </row>
     <row r="21">
@@ -4111,7 +4111,7 @@
         <v>208</v>
       </c>
       <c r="C21" t="n">
-        <v>101.983521885648</v>
+        <v>101.983521885907</v>
       </c>
     </row>
     <row r="22">
@@ -4122,7 +4122,7 @@
         <v>208</v>
       </c>
       <c r="C22" t="n">
-        <v>101.572017647833</v>
+        <v>101.572017648031</v>
       </c>
     </row>
     <row r="23">
@@ -4133,7 +4133,7 @@
         <v>208</v>
       </c>
       <c r="C23" t="n">
-        <v>100.992583875168</v>
+        <v>100.992583875569</v>
       </c>
     </row>
     <row r="24">
@@ -4144,7 +4144,7 @@
         <v>208</v>
       </c>
       <c r="C24" t="n">
-        <v>100.871743227223</v>
+        <v>100.871743227559</v>
       </c>
     </row>
     <row r="25">
@@ -4155,7 +4155,7 @@
         <v>208</v>
       </c>
       <c r="C25" t="n">
-        <v>100.670039639388</v>
+        <v>100.670039639775</v>
       </c>
     </row>
     <row r="26">
@@ -4166,7 +4166,7 @@
         <v>208</v>
       </c>
       <c r="C26" t="n">
-        <v>100.299775128607</v>
+        <v>100.299775129039</v>
       </c>
     </row>
     <row r="27">
@@ -4177,7 +4177,7 @@
         <v>208</v>
       </c>
       <c r="C27" t="n">
-        <v>100.025317047082</v>
+        <v>100.025317047297</v>
       </c>
     </row>
     <row r="28">
@@ -4188,7 +4188,7 @@
         <v>208</v>
       </c>
       <c r="C28" t="n">
-        <v>99.6746919745664</v>
+        <v>99.6746919749363</v>
       </c>
     </row>
     <row r="29">
@@ -4199,7 +4199,7 @@
         <v>208</v>
       </c>
       <c r="C29" t="n">
-        <v>99.585927079833</v>
+        <v>99.5859270801171</v>
       </c>
     </row>
     <row r="30">
@@ -4210,7 +4210,7 @@
         <v>208</v>
       </c>
       <c r="C30" t="n">
-        <v>99.525659985365</v>
+        <v>99.5256599855802</v>
       </c>
     </row>
     <row r="31">
@@ -4221,7 +4221,7 @@
         <v>208</v>
       </c>
       <c r="C31" t="n">
-        <v>98.4565924502053</v>
+        <v>98.4565924504768</v>
       </c>
     </row>
     <row r="32">
@@ -4232,7 +4232,7 @@
         <v>208</v>
       </c>
       <c r="C32" t="n">
-        <v>98.3275774472175</v>
+        <v>98.3275774476378</v>
       </c>
     </row>
     <row r="33">
@@ -4243,7 +4243,7 @@
         <v>208</v>
       </c>
       <c r="C33" t="n">
-        <v>97.9443540629268</v>
+        <v>97.9443540632912</v>
       </c>
     </row>
     <row r="34">
@@ -4254,7 +4254,7 @@
         <v>208</v>
       </c>
       <c r="C34" t="n">
-        <v>97.2126922278307</v>
+        <v>97.2126922282067</v>
       </c>
     </row>
     <row r="35">
@@ -4265,7 +4265,7 @@
         <v>208</v>
       </c>
       <c r="C35" t="n">
-        <v>97.0370666219366</v>
+        <v>97.0370666221292</v>
       </c>
     </row>
     <row r="36">
@@ -4276,7 +4276,7 @@
         <v>208</v>
       </c>
       <c r="C36" t="n">
-        <v>97.0077018930915</v>
+        <v>97.0077018932832</v>
       </c>
     </row>
     <row r="37">
@@ -4287,7 +4287,7 @@
         <v>208</v>
       </c>
       <c r="C37" t="n">
-        <v>96.3511259234241</v>
+        <v>96.3511259234878</v>
       </c>
     </row>
     <row r="38">
@@ -4298,7 +4298,7 @@
         <v>208</v>
       </c>
       <c r="C38" t="n">
-        <v>95.8832459734478</v>
+        <v>95.8832459737097</v>
       </c>
     </row>
     <row r="39">
@@ -4309,7 +4309,7 @@
         <v>208</v>
       </c>
       <c r="C39" t="n">
-        <v>95.3976946519275</v>
+        <v>95.3976946521937</v>
       </c>
     </row>
     <row r="40">
@@ -4320,7 +4320,7 @@
         <v>208</v>
       </c>
       <c r="C40" t="n">
-        <v>95.0754763168842</v>
+        <v>95.0754763171646</v>
       </c>
     </row>
     <row r="41">
@@ -4331,7 +4331,7 @@
         <v>208</v>
       </c>
       <c r="C41" t="n">
-        <v>93.9695076914695</v>
+        <v>93.9695076917917</v>
       </c>
     </row>
     <row r="42">
@@ -4342,7 +4342,7 @@
         <v>208</v>
       </c>
       <c r="C42" t="n">
-        <v>93.5785663189638</v>
+        <v>93.5785663190201</v>
       </c>
     </row>
     <row r="43">
@@ -4353,7 +4353,7 @@
         <v>208</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2860925946129</v>
+        <v>93.2860925947272</v>
       </c>
     </row>
     <row r="44">
@@ -4364,7 +4364,7 @@
         <v>208</v>
       </c>
       <c r="C44" t="n">
-        <v>92.9598206761664</v>
+        <v>92.9598206765699</v>
       </c>
     </row>
     <row r="45">
@@ -4375,7 +4375,7 @@
         <v>208</v>
       </c>
       <c r="C45" t="n">
-        <v>92.8724088002378</v>
+        <v>92.8724088005763</v>
       </c>
     </row>
     <row r="46">
@@ -4386,7 +4386,7 @@
         <v>208</v>
       </c>
       <c r="C46" t="n">
-        <v>92.8574440198644</v>
+        <v>92.8574440200598</v>
       </c>
     </row>
     <row r="47">
@@ -4397,7 +4397,7 @@
         <v>208</v>
       </c>
       <c r="C47" t="n">
-        <v>92.7712389219811</v>
+        <v>92.771238922152</v>
       </c>
     </row>
     <row r="48">
@@ -4408,7 +4408,7 @@
         <v>208</v>
       </c>
       <c r="C48" t="n">
-        <v>92.6514506959541</v>
+        <v>92.651450696167</v>
       </c>
     </row>
     <row r="49">
@@ -4419,7 +4419,7 @@
         <v>208</v>
       </c>
       <c r="C49" t="n">
-        <v>92.4806240267351</v>
+        <v>92.4806240268933</v>
       </c>
     </row>
     <row r="50">
@@ -4430,7 +4430,7 @@
         <v>208</v>
       </c>
       <c r="C50" t="n">
-        <v>92.3137309117542</v>
+        <v>92.3137309119563</v>
       </c>
     </row>
     <row r="51">
@@ -4441,7 +4441,7 @@
         <v>208</v>
       </c>
       <c r="C51" t="n">
-        <v>92.2134730726735</v>
+        <v>92.2134730728698</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4477,7 @@
         <v>259</v>
       </c>
       <c r="C2" t="n">
-        <v>69.0117028158365</v>
+        <v>69.0117028159471</v>
       </c>
     </row>
     <row r="3">
@@ -4488,7 +4488,7 @@
         <v>259</v>
       </c>
       <c r="C3" t="n">
-        <v>68.4228230023039</v>
+        <v>68.4228230023849</v>
       </c>
     </row>
     <row r="4">
@@ -4499,7 +4499,7 @@
         <v>259</v>
       </c>
       <c r="C4" t="n">
-        <v>65.0884383275145</v>
+        <v>65.0884383276624</v>
       </c>
     </row>
     <row r="5">
@@ -4510,7 +4510,7 @@
         <v>259</v>
       </c>
       <c r="C5" t="n">
-        <v>64.980601517401</v>
+        <v>64.9806015175894</v>
       </c>
     </row>
     <row r="6">
@@ -4521,7 +4521,7 @@
         <v>259</v>
       </c>
       <c r="C6" t="n">
-        <v>61.5362788923429</v>
+        <v>61.5362788924457</v>
       </c>
     </row>
     <row r="7">
@@ -4532,7 +4532,7 @@
         <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>61.1993216279251</v>
+        <v>61.1993216280653</v>
       </c>
     </row>
     <row r="8">
@@ -4543,7 +4543,7 @@
         <v>259</v>
       </c>
       <c r="C8" t="n">
-        <v>60.6779381090143</v>
+        <v>60.6779381091326</v>
       </c>
     </row>
     <row r="9">
@@ -4554,7 +4554,7 @@
         <v>259</v>
       </c>
       <c r="C9" t="n">
-        <v>60.5851510567403</v>
+        <v>60.5851510568496</v>
       </c>
     </row>
     <row r="10">
@@ -4565,7 +4565,7 @@
         <v>259</v>
       </c>
       <c r="C10" t="n">
-        <v>59.4683393684713</v>
+        <v>59.4683393685457</v>
       </c>
     </row>
     <row r="11">
@@ -4576,7 +4576,7 @@
         <v>259</v>
       </c>
       <c r="C11" t="n">
-        <v>58.8444935921231</v>
+        <v>58.8444935922041</v>
       </c>
     </row>
     <row r="12">
@@ -4587,7 +4587,7 @@
         <v>259</v>
       </c>
       <c r="C12" t="n">
-        <v>58.101761992494</v>
+        <v>58.1017619926406</v>
       </c>
     </row>
     <row r="13">
@@ -4598,7 +4598,7 @@
         <v>259</v>
       </c>
       <c r="C13" t="n">
-        <v>56.4394640695399</v>
+        <v>56.4394640695966</v>
       </c>
     </row>
     <row r="14">
@@ -4609,7 +4609,7 @@
         <v>259</v>
       </c>
       <c r="C14" t="n">
-        <v>56.1731461621943</v>
+        <v>56.1731461622511</v>
       </c>
     </row>
     <row r="15">
@@ -4620,7 +4620,7 @@
         <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>56.0616011416966</v>
+        <v>56.0616011417632</v>
       </c>
     </row>
     <row r="16">
@@ -4631,7 +4631,7 @@
         <v>259</v>
       </c>
       <c r="C16" t="n">
-        <v>55.2036948269029</v>
+        <v>55.2036948269791</v>
       </c>
     </row>
     <row r="17">
@@ -4642,7 +4642,7 @@
         <v>259</v>
       </c>
       <c r="C17" t="n">
-        <v>55.1693508194776</v>
+        <v>55.1693508196433</v>
       </c>
     </row>
     <row r="18">
@@ -4653,7 +4653,7 @@
         <v>259</v>
       </c>
       <c r="C18" t="n">
-        <v>54.8753052227647</v>
+        <v>54.8753052228292</v>
       </c>
     </row>
     <row r="19">
@@ -4664,7 +4664,7 @@
         <v>259</v>
       </c>
       <c r="C19" t="n">
-        <v>54.7371324700322</v>
+        <v>54.7371324700883</v>
       </c>
     </row>
     <row r="20">
@@ -4675,7 +4675,7 @@
         <v>259</v>
       </c>
       <c r="C20" t="n">
-        <v>54.7258805852869</v>
+        <v>54.7258805854268</v>
       </c>
     </row>
     <row r="21">
@@ -4686,7 +4686,7 @@
         <v>259</v>
       </c>
       <c r="C21" t="n">
-        <v>54.3640392822596</v>
+        <v>54.3640392822963</v>
       </c>
     </row>
     <row r="22">
@@ -4697,7 +4697,7 @@
         <v>259</v>
       </c>
       <c r="C22" t="n">
-        <v>54.026615309219</v>
+        <v>54.0266153092806</v>
       </c>
     </row>
     <row r="23">
@@ -4708,7 +4708,7 @@
         <v>259</v>
       </c>
       <c r="C23" t="n">
-        <v>53.8525556298597</v>
+        <v>53.8525556299232</v>
       </c>
     </row>
     <row r="24">
@@ -4719,7 +4719,7 @@
         <v>259</v>
       </c>
       <c r="C24" t="n">
-        <v>53.2049796567439</v>
+        <v>53.2049796568569</v>
       </c>
     </row>
     <row r="25">
@@ -4730,7 +4730,7 @@
         <v>259</v>
       </c>
       <c r="C25" t="n">
-        <v>52.7872406525187</v>
+        <v>52.7872406526012</v>
       </c>
     </row>
     <row r="26">
@@ -4741,7 +4741,7 @@
         <v>259</v>
       </c>
       <c r="C26" t="n">
-        <v>52.4260861002404</v>
+        <v>52.4260861003446</v>
       </c>
     </row>
     <row r="27">
@@ -4752,7 +4752,7 @@
         <v>259</v>
       </c>
       <c r="C27" t="n">
-        <v>51.9630076159814</v>
+        <v>51.963007616092</v>
       </c>
     </row>
     <row r="28">
@@ -4763,7 +4763,7 @@
         <v>259</v>
       </c>
       <c r="C28" t="n">
-        <v>51.9124400616645</v>
+        <v>51.9124400617224</v>
       </c>
     </row>
     <row r="29">
@@ -4774,7 +4774,7 @@
         <v>259</v>
       </c>
       <c r="C29" t="n">
-        <v>51.8320482251422</v>
+        <v>51.8320482252422</v>
       </c>
     </row>
     <row r="30">
@@ -4785,7 +4785,7 @@
         <v>259</v>
       </c>
       <c r="C30" t="n">
-        <v>51.1741371078347</v>
+        <v>51.1741371079256</v>
       </c>
     </row>
     <row r="31">
@@ -4796,7 +4796,7 @@
         <v>259</v>
       </c>
       <c r="C31" t="n">
-        <v>51.1205648821178</v>
+        <v>51.1205648821673</v>
       </c>
     </row>
     <row r="32">
@@ -4807,7 +4807,7 @@
         <v>259</v>
       </c>
       <c r="C32" t="n">
-        <v>50.596408250801</v>
+        <v>50.5964082508845</v>
       </c>
     </row>
     <row r="33">
@@ -4818,7 +4818,7 @@
         <v>259</v>
       </c>
       <c r="C33" t="n">
-        <v>49.5337552212529</v>
+        <v>49.533755221335</v>
       </c>
     </row>
     <row r="34">
@@ -4829,7 +4829,7 @@
         <v>259</v>
       </c>
       <c r="C34" t="n">
-        <v>49.3773379589324</v>
+        <v>49.3773379590686</v>
       </c>
     </row>
     <row r="35">
@@ -4840,7 +4840,7 @@
         <v>259</v>
       </c>
       <c r="C35" t="n">
-        <v>49.3744596288372</v>
+        <v>49.3744596288766</v>
       </c>
     </row>
     <row r="36">
@@ -4851,7 +4851,7 @@
         <v>259</v>
       </c>
       <c r="C36" t="n">
-        <v>49.1173172759063</v>
+        <v>49.1173172760537</v>
       </c>
     </row>
     <row r="37">
@@ -4862,7 +4862,7 @@
         <v>259</v>
       </c>
       <c r="C37" t="n">
-        <v>49.0508387026927</v>
+        <v>49.0508387027573</v>
       </c>
     </row>
     <row r="38">
@@ -4873,7 +4873,7 @@
         <v>259</v>
       </c>
       <c r="C38" t="n">
-        <v>48.6650381326775</v>
+        <v>48.6650381327547</v>
       </c>
     </row>
     <row r="39">
@@ -4884,7 +4884,7 @@
         <v>259</v>
       </c>
       <c r="C39" t="n">
-        <v>48.5544524841494</v>
+        <v>48.5544524842354</v>
       </c>
     </row>
     <row r="40">
@@ -4895,7 +4895,7 @@
         <v>259</v>
       </c>
       <c r="C40" t="n">
-        <v>48.4591451300428</v>
+        <v>48.4591451301192</v>
       </c>
     </row>
     <row r="41">
@@ -4906,7 +4906,7 @@
         <v>259</v>
       </c>
       <c r="C41" t="n">
-        <v>48.4384860067679</v>
+        <v>48.4384860068509</v>
       </c>
     </row>
     <row r="42">
@@ -4917,7 +4917,7 @@
         <v>259</v>
       </c>
       <c r="C42" t="n">
-        <v>47.912373209623</v>
+        <v>47.9123732097135</v>
       </c>
     </row>
     <row r="43">
@@ -4928,7 +4928,7 @@
         <v>259</v>
       </c>
       <c r="C43" t="n">
-        <v>47.7447676352907</v>
+        <v>47.7447676354121</v>
       </c>
     </row>
     <row r="44">
@@ -4939,7 +4939,7 @@
         <v>259</v>
       </c>
       <c r="C44" t="n">
-        <v>47.7177795364819</v>
+        <v>47.7177795365456</v>
       </c>
     </row>
     <row r="45">
@@ -4950,7 +4950,7 @@
         <v>259</v>
       </c>
       <c r="C45" t="n">
-        <v>47.1632277679519</v>
+        <v>47.1632277682966</v>
       </c>
     </row>
     <row r="46">
@@ -4961,7 +4961,7 @@
         <v>259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9264620600146</v>
+        <v>46.9264620600642</v>
       </c>
     </row>
     <row r="47">
@@ -4972,7 +4972,7 @@
         <v>259</v>
       </c>
       <c r="C47" t="n">
-        <v>46.8889706544872</v>
+        <v>46.8889706545683</v>
       </c>
     </row>
     <row r="48">
@@ -4983,7 +4983,7 @@
         <v>259</v>
       </c>
       <c r="C48" t="n">
-        <v>46.8189326813154</v>
+        <v>46.8189326814102</v>
       </c>
     </row>
     <row r="49">
@@ -4994,7 +4994,7 @@
         <v>259</v>
       </c>
       <c r="C49" t="n">
-        <v>46.574651362664</v>
+        <v>46.5746513626988</v>
       </c>
     </row>
     <row r="50">
@@ -5005,7 +5005,7 @@
         <v>259</v>
       </c>
       <c r="C50" t="n">
-        <v>45.7699005978396</v>
+        <v>45.7699005978878</v>
       </c>
     </row>
     <row r="51">
@@ -5016,7 +5016,7 @@
         <v>259</v>
       </c>
       <c r="C51" t="n">
-        <v>45.7464051337771</v>
+        <v>45.7464051338469</v>
       </c>
     </row>
   </sheetData>
@@ -5052,7 +5052,7 @@
         <v>310</v>
       </c>
       <c r="C2" t="n">
-        <v>29.7889123576892</v>
+        <v>29.7889123576973</v>
       </c>
     </row>
     <row r="3">
@@ -5063,7 +5063,7 @@
         <v>310</v>
       </c>
       <c r="C3" t="n">
-        <v>27.5305616570878</v>
+        <v>27.53056165709</v>
       </c>
     </row>
     <row r="4">
@@ -5074,7 +5074,7 @@
         <v>310</v>
       </c>
       <c r="C4" t="n">
-        <v>27.4071491496151</v>
+        <v>27.4071491496177</v>
       </c>
     </row>
     <row r="5">
@@ -5085,7 +5085,7 @@
         <v>310</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3228062533619</v>
+        <v>27.3228062533667</v>
       </c>
     </row>
     <row r="6">
@@ -5096,7 +5096,7 @@
         <v>310</v>
       </c>
       <c r="C6" t="n">
-        <v>26.546923651878</v>
+        <v>26.5469236518813</v>
       </c>
     </row>
     <row r="7">
@@ -5107,7 +5107,7 @@
         <v>310</v>
       </c>
       <c r="C7" t="n">
-        <v>26.4655814637265</v>
+        <v>26.4655814637296</v>
       </c>
     </row>
     <row r="8">
@@ -5118,7 +5118,7 @@
         <v>310</v>
       </c>
       <c r="C8" t="n">
-        <v>26.0742722178909</v>
+        <v>26.0742722178924</v>
       </c>
     </row>
     <row r="9">
@@ -5129,7 +5129,7 @@
         <v>310</v>
       </c>
       <c r="C9" t="n">
-        <v>26.0300236616665</v>
+        <v>26.0300236616715</v>
       </c>
     </row>
     <row r="10">
@@ -5140,7 +5140,7 @@
         <v>310</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6339752298041</v>
+        <v>25.6339752298026</v>
       </c>
     </row>
     <row r="11">
@@ -5151,7 +5151,7 @@
         <v>310</v>
       </c>
       <c r="C11" t="n">
-        <v>25.6257333137497</v>
+        <v>25.6257333137552</v>
       </c>
     </row>
     <row r="12">
@@ -5162,7 +5162,7 @@
         <v>310</v>
       </c>
       <c r="C12" t="n">
-        <v>25.1980252205138</v>
+        <v>25.1980252205181</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         <v>310</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1156482685684</v>
+        <v>25.1156482685704</v>
       </c>
     </row>
     <row r="14">
@@ -5184,7 +5184,7 @@
         <v>310</v>
       </c>
       <c r="C14" t="n">
-        <v>24.514793254105</v>
+        <v>24.5147932541065</v>
       </c>
     </row>
     <row r="15">
@@ -5195,7 +5195,7 @@
         <v>310</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3602716424762</v>
+        <v>24.3602716424791</v>
       </c>
     </row>
     <row r="16">
@@ -5206,7 +5206,7 @@
         <v>310</v>
       </c>
       <c r="C16" t="n">
-        <v>24.2807298333818</v>
+        <v>24.2807298333853</v>
       </c>
     </row>
     <row r="17">
@@ -5217,7 +5217,7 @@
         <v>310</v>
       </c>
       <c r="C17" t="n">
-        <v>24.1956175394185</v>
+        <v>24.1956175394657</v>
       </c>
     </row>
     <row r="18">
@@ -5228,7 +5228,7 @@
         <v>310</v>
       </c>
       <c r="C18" t="n">
-        <v>24.1476008044422</v>
+        <v>24.1476008044434</v>
       </c>
     </row>
     <row r="19">
@@ -5239,7 +5239,7 @@
         <v>310</v>
       </c>
       <c r="C19" t="n">
-        <v>23.5050412323051</v>
+        <v>23.5050412323087</v>
       </c>
     </row>
     <row r="20">
@@ -5250,7 +5250,7 @@
         <v>310</v>
       </c>
       <c r="C20" t="n">
-        <v>23.2676246890599</v>
+        <v>23.2676246890601</v>
       </c>
     </row>
     <row r="21">
@@ -5261,7 +5261,7 @@
         <v>310</v>
       </c>
       <c r="C21" t="n">
-        <v>23.2087863266373</v>
+        <v>23.2087863266385</v>
       </c>
     </row>
     <row r="22">
@@ -5272,7 +5272,7 @@
         <v>310</v>
       </c>
       <c r="C22" t="n">
-        <v>22.8026051541022</v>
+        <v>22.8026051541033</v>
       </c>
     </row>
     <row r="23">
@@ -5283,7 +5283,7 @@
         <v>310</v>
       </c>
       <c r="C23" t="n">
-        <v>22.1104302669891</v>
+        <v>22.1104302669913</v>
       </c>
     </row>
     <row r="24">
@@ -5294,7 +5294,7 @@
         <v>310</v>
       </c>
       <c r="C24" t="n">
-        <v>21.5345546586288</v>
+        <v>21.5345546586337</v>
       </c>
     </row>
     <row r="25">
@@ -5305,7 +5305,7 @@
         <v>310</v>
       </c>
       <c r="C25" t="n">
-        <v>21.0637267489754</v>
+        <v>21.0637267489755</v>
       </c>
     </row>
     <row r="26">
@@ -5316,7 +5316,7 @@
         <v>310</v>
       </c>
       <c r="C26" t="n">
-        <v>20.861228589413</v>
+        <v>20.8612285894589</v>
       </c>
     </row>
     <row r="27">
@@ -5327,7 +5327,7 @@
         <v>310</v>
       </c>
       <c r="C27" t="n">
-        <v>20.8551370446869</v>
+        <v>20.8551370446988</v>
       </c>
     </row>
     <row r="28">
@@ -5338,7 +5338,7 @@
         <v>310</v>
       </c>
       <c r="C28" t="n">
-        <v>20.7716182662784</v>
+        <v>20.7716182662776</v>
       </c>
     </row>
     <row r="29">
@@ -5349,7 +5349,7 @@
         <v>310</v>
       </c>
       <c r="C29" t="n">
-        <v>20.762280254231</v>
+        <v>20.7622802542358</v>
       </c>
     </row>
     <row r="30">
@@ -5360,7 +5360,7 @@
         <v>310</v>
       </c>
       <c r="C30" t="n">
-        <v>19.7528911295903</v>
+        <v>19.7528911296699</v>
       </c>
     </row>
     <row r="31">
@@ -5371,7 +5371,7 @@
         <v>310</v>
       </c>
       <c r="C31" t="n">
-        <v>19.5341865254407</v>
+        <v>19.5341865254412</v>
       </c>
     </row>
     <row r="32">
@@ -5393,7 +5393,7 @@
         <v>310</v>
       </c>
       <c r="C33" t="n">
-        <v>19.2126352269408</v>
+        <v>19.2126352269347</v>
       </c>
     </row>
     <row r="34">
@@ -5404,7 +5404,7 @@
         <v>310</v>
       </c>
       <c r="C34" t="n">
-        <v>19.161101487805</v>
+        <v>19.1611014878389</v>
       </c>
     </row>
     <row r="35">
@@ -5415,7 +5415,7 @@
         <v>310</v>
       </c>
       <c r="C35" t="n">
-        <v>18.7347159907915</v>
+        <v>18.734715990788</v>
       </c>
     </row>
     <row r="36">
@@ -5426,7 +5426,7 @@
         <v>310</v>
       </c>
       <c r="C36" t="n">
-        <v>18.1740625415176</v>
+        <v>18.1740625415038</v>
       </c>
     </row>
     <row r="37">
@@ -5437,7 +5437,7 @@
         <v>310</v>
       </c>
       <c r="C37" t="n">
-        <v>17.9877341367915</v>
+        <v>17.9877341368034</v>
       </c>
     </row>
     <row r="38">
@@ -5448,7 +5448,7 @@
         <v>310</v>
       </c>
       <c r="C38" t="n">
-        <v>17.864664875813</v>
+        <v>17.8646648758226</v>
       </c>
     </row>
     <row r="39">
@@ -5459,7 +5459,7 @@
         <v>310</v>
       </c>
       <c r="C39" t="n">
-        <v>17.7996838167499</v>
+        <v>17.7996838167532</v>
       </c>
     </row>
     <row r="40">
@@ -5470,7 +5470,7 @@
         <v>310</v>
       </c>
       <c r="C40" t="n">
-        <v>17.7602685481927</v>
+        <v>17.7602685481915</v>
       </c>
     </row>
     <row r="41">
@@ -5481,7 +5481,7 @@
         <v>310</v>
       </c>
       <c r="C41" t="n">
-        <v>17.6120783981442</v>
+        <v>17.6120783981752</v>
       </c>
     </row>
     <row r="42">
@@ -5492,7 +5492,7 @@
         <v>310</v>
       </c>
       <c r="C42" t="n">
-        <v>17.396949809169</v>
+        <v>17.3969498091749</v>
       </c>
     </row>
     <row r="43">
@@ -5503,7 +5503,7 @@
         <v>310</v>
       </c>
       <c r="C43" t="n">
-        <v>17.3867946179134</v>
+        <v>17.3867946179128</v>
       </c>
     </row>
     <row r="44">
@@ -5514,7 +5514,7 @@
         <v>310</v>
       </c>
       <c r="C44" t="n">
-        <v>17.2048076199135</v>
+        <v>17.2048076199228</v>
       </c>
     </row>
     <row r="45">
@@ -5525,7 +5525,7 @@
         <v>310</v>
       </c>
       <c r="C45" t="n">
-        <v>17.1299997839695</v>
+        <v>17.1299997839707</v>
       </c>
     </row>
     <row r="46">
@@ -5536,7 +5536,7 @@
         <v>310</v>
       </c>
       <c r="C46" t="n">
-        <v>17.0595761115953</v>
+        <v>17.0595761115939</v>
       </c>
     </row>
     <row r="47">
@@ -5547,7 +5547,7 @@
         <v>310</v>
       </c>
       <c r="C47" t="n">
-        <v>16.9194130325182</v>
+        <v>16.9194130325224</v>
       </c>
     </row>
     <row r="48">
@@ -5558,7 +5558,7 @@
         <v>310</v>
       </c>
       <c r="C48" t="n">
-        <v>16.8234764561925</v>
+        <v>16.823476456198</v>
       </c>
     </row>
     <row r="49">
@@ -5569,7 +5569,7 @@
         <v>310</v>
       </c>
       <c r="C49" t="n">
-        <v>16.7798816107186</v>
+        <v>16.7798816107175</v>
       </c>
     </row>
     <row r="50">
@@ -5580,7 +5580,7 @@
         <v>310</v>
       </c>
       <c r="C50" t="n">
-        <v>16.7732972354763</v>
+        <v>16.773297235476</v>
       </c>
     </row>
     <row r="51">
@@ -5591,7 +5591,7 @@
         <v>310</v>
       </c>
       <c r="C51" t="n">
-        <v>16.76615872315</v>
+        <v>16.7661587231498</v>
       </c>
     </row>
   </sheetData>
@@ -5627,7 +5627,7 @@
         <v>361</v>
       </c>
       <c r="C2" t="n">
-        <v>18.12035574806</v>
+        <v>18.120355748102</v>
       </c>
     </row>
     <row r="3">
@@ -5638,7 +5638,7 @@
         <v>361</v>
       </c>
       <c r="C3" t="n">
-        <v>15.891852492605</v>
+        <v>15.8918524926245</v>
       </c>
     </row>
     <row r="4">
@@ -5649,7 +5649,7 @@
         <v>361</v>
       </c>
       <c r="C4" t="n">
-        <v>15.8075737781081</v>
+        <v>15.8075737781488</v>
       </c>
     </row>
     <row r="5">
@@ -5660,7 +5660,7 @@
         <v>361</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3447216699942</v>
+        <v>15.3447216700049</v>
       </c>
     </row>
     <row r="6">
@@ -5671,7 +5671,7 @@
         <v>361</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8226828613777</v>
+        <v>14.8226828614302</v>
       </c>
     </row>
     <row r="7">
@@ -5682,7 +5682,7 @@
         <v>361</v>
       </c>
       <c r="C7" t="n">
-        <v>14.703722977919</v>
+        <v>14.7037229779623</v>
       </c>
     </row>
     <row r="8">
@@ -5693,7 +5693,7 @@
         <v>361</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5873366576675</v>
+        <v>14.587336657681</v>
       </c>
     </row>
     <row r="9">
@@ -5704,7 +5704,7 @@
         <v>361</v>
       </c>
       <c r="C9" t="n">
-        <v>13.952124743693</v>
+        <v>13.9521247437191</v>
       </c>
     </row>
     <row r="10">
@@ -5715,7 +5715,7 @@
         <v>361</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8920176029212</v>
+        <v>13.892017602936</v>
       </c>
     </row>
     <row r="11">
@@ -5726,7 +5726,7 @@
         <v>361</v>
       </c>
       <c r="C11" t="n">
-        <v>13.8378947415662</v>
+        <v>13.8378947415753</v>
       </c>
     </row>
     <row r="12">
@@ -5737,7 +5737,7 @@
         <v>361</v>
       </c>
       <c r="C12" t="n">
-        <v>13.689040119473</v>
+        <v>13.689040119505</v>
       </c>
     </row>
     <row r="13">
@@ -5748,7 +5748,7 @@
         <v>361</v>
       </c>
       <c r="C13" t="n">
-        <v>13.3750271503643</v>
+        <v>13.3750271503943</v>
       </c>
     </row>
     <row r="14">
@@ -5759,7 +5759,7 @@
         <v>361</v>
       </c>
       <c r="C14" t="n">
-        <v>13.0407122676155</v>
+        <v>13.0407122676821</v>
       </c>
     </row>
     <row r="15">
@@ -5770,7 +5770,7 @@
         <v>361</v>
       </c>
       <c r="C15" t="n">
-        <v>12.7532392678557</v>
+        <v>12.7532392678696</v>
       </c>
     </row>
     <row r="16">
@@ -5781,7 +5781,7 @@
         <v>361</v>
       </c>
       <c r="C16" t="n">
-        <v>12.6873630237897</v>
+        <v>12.6873630238074</v>
       </c>
     </row>
     <row r="17">
@@ -5792,7 +5792,7 @@
         <v>361</v>
       </c>
       <c r="C17" t="n">
-        <v>12.3083715386398</v>
+        <v>12.3083715386819</v>
       </c>
     </row>
     <row r="18">
@@ -5803,7 +5803,7 @@
         <v>361</v>
       </c>
       <c r="C18" t="n">
-        <v>12.0969921685114</v>
+        <v>12.0969921685223</v>
       </c>
     </row>
     <row r="19">
@@ -5814,7 +5814,7 @@
         <v>361</v>
       </c>
       <c r="C19" t="n">
-        <v>12.0208525143006</v>
+        <v>12.0208525143128</v>
       </c>
     </row>
     <row r="20">
@@ -5825,7 +5825,7 @@
         <v>361</v>
       </c>
       <c r="C20" t="n">
-        <v>11.7349746889268</v>
+        <v>11.7349746889455</v>
       </c>
     </row>
     <row r="21">
@@ -5836,7 +5836,7 @@
         <v>361</v>
       </c>
       <c r="C21" t="n">
-        <v>11.661304901434</v>
+        <v>11.6613049014497</v>
       </c>
     </row>
     <row r="22">
@@ -5847,7 +5847,7 @@
         <v>361</v>
       </c>
       <c r="C22" t="n">
-        <v>11.5277685216958</v>
+        <v>11.5277685217186</v>
       </c>
     </row>
     <row r="23">
@@ -5858,7 +5858,7 @@
         <v>361</v>
       </c>
       <c r="C23" t="n">
-        <v>11.4601028896777</v>
+        <v>11.4601028897223</v>
       </c>
     </row>
     <row r="24">
@@ -5869,7 +5869,7 @@
         <v>361</v>
       </c>
       <c r="C24" t="n">
-        <v>11.3574005523173</v>
+        <v>11.3574005523242</v>
       </c>
     </row>
     <row r="25">
@@ -5880,7 +5880,7 @@
         <v>361</v>
       </c>
       <c r="C25" t="n">
-        <v>11.1008082370268</v>
+        <v>11.1008082370387</v>
       </c>
     </row>
     <row r="26">
@@ -5891,7 +5891,7 @@
         <v>361</v>
       </c>
       <c r="C26" t="n">
-        <v>11.0318558368796</v>
+        <v>11.0318558369117</v>
       </c>
     </row>
     <row r="27">
@@ -5902,7 +5902,7 @@
         <v>361</v>
       </c>
       <c r="C27" t="n">
-        <v>10.8099000065976</v>
+        <v>10.809900006614</v>
       </c>
     </row>
     <row r="28">
@@ -5913,7 +5913,7 @@
         <v>361</v>
       </c>
       <c r="C28" t="n">
-        <v>10.7995477682567</v>
+        <v>10.7995477682655</v>
       </c>
     </row>
     <row r="29">
@@ -5924,7 +5924,7 @@
         <v>361</v>
       </c>
       <c r="C29" t="n">
-        <v>10.7920318313942</v>
+        <v>10.7920318313991</v>
       </c>
     </row>
     <row r="30">
@@ -5935,7 +5935,7 @@
         <v>361</v>
       </c>
       <c r="C30" t="n">
-        <v>10.6760539527293</v>
+        <v>10.6760539527454</v>
       </c>
     </row>
     <row r="31">
@@ -5946,7 +5946,7 @@
         <v>361</v>
       </c>
       <c r="C31" t="n">
-        <v>10.6271780118279</v>
+        <v>10.6271780118495</v>
       </c>
     </row>
     <row r="32">
@@ -5957,7 +5957,7 @@
         <v>361</v>
       </c>
       <c r="C32" t="n">
-        <v>10.5439290937319</v>
+        <v>10.5439290937533</v>
       </c>
     </row>
     <row r="33">
@@ -5968,7 +5968,7 @@
         <v>361</v>
       </c>
       <c r="C33" t="n">
-        <v>10.455451383765</v>
+        <v>10.455451383785</v>
       </c>
     </row>
     <row r="34">
@@ -5979,7 +5979,7 @@
         <v>361</v>
       </c>
       <c r="C34" t="n">
-        <v>10.4147871158587</v>
+        <v>10.4147871159236</v>
       </c>
     </row>
     <row r="35">
@@ -5990,7 +5990,7 @@
         <v>361</v>
       </c>
       <c r="C35" t="n">
-        <v>10.3189039067503</v>
+        <v>10.3189039067785</v>
       </c>
     </row>
     <row r="36">
@@ -6001,7 +6001,7 @@
         <v>361</v>
       </c>
       <c r="C36" t="n">
-        <v>10.1169746943334</v>
+        <v>10.1169746943419</v>
       </c>
     </row>
     <row r="37">
@@ -6012,7 +6012,7 @@
         <v>361</v>
       </c>
       <c r="C37" t="n">
-        <v>10.078959209367</v>
+        <v>10.0789592093906</v>
       </c>
     </row>
     <row r="38">
@@ -6023,7 +6023,7 @@
         <v>361</v>
       </c>
       <c r="C38" t="n">
-        <v>9.94280162434668</v>
+        <v>9.94280162435733</v>
       </c>
     </row>
     <row r="39">
@@ -6034,7 +6034,7 @@
         <v>361</v>
       </c>
       <c r="C39" t="n">
-        <v>9.89909759670591</v>
+        <v>9.8990975967314</v>
       </c>
     </row>
     <row r="40">
@@ -6045,7 +6045,7 @@
         <v>361</v>
       </c>
       <c r="C40" t="n">
-        <v>9.73849571428103</v>
+        <v>9.73849571428261</v>
       </c>
     </row>
     <row r="41">
@@ -6056,7 +6056,7 @@
         <v>361</v>
       </c>
       <c r="C41" t="n">
-        <v>9.7261624923428</v>
+        <v>9.72616249235304</v>
       </c>
     </row>
     <row r="42">
@@ -6067,7 +6067,7 @@
         <v>361</v>
       </c>
       <c r="C42" t="n">
-        <v>9.58521612617492</v>
+        <v>9.5852161262022</v>
       </c>
     </row>
     <row r="43">
@@ -6078,7 +6078,7 @@
         <v>361</v>
       </c>
       <c r="C43" t="n">
-        <v>9.55990977324356</v>
+        <v>9.55990977329535</v>
       </c>
     </row>
     <row r="44">
@@ -6089,7 +6089,7 @@
         <v>361</v>
       </c>
       <c r="C44" t="n">
-        <v>9.50093854904318</v>
+        <v>9.50093854906948</v>
       </c>
     </row>
     <row r="45">
@@ -6100,7 +6100,7 @@
         <v>361</v>
       </c>
       <c r="C45" t="n">
-        <v>9.50050811134011</v>
+        <v>9.50050811137648</v>
       </c>
     </row>
     <row r="46">
@@ -6111,7 +6111,7 @@
         <v>361</v>
       </c>
       <c r="C46" t="n">
-        <v>9.47738152570708</v>
+        <v>9.47738152571665</v>
       </c>
     </row>
     <row r="47">
@@ -6122,7 +6122,7 @@
         <v>361</v>
       </c>
       <c r="C47" t="n">
-        <v>9.45702836917503</v>
+        <v>9.4570283691854</v>
       </c>
     </row>
     <row r="48">
@@ -6133,7 +6133,7 @@
         <v>361</v>
       </c>
       <c r="C48" t="n">
-        <v>9.41682106435409</v>
+        <v>9.41682106437263</v>
       </c>
     </row>
     <row r="49">
@@ -6144,7 +6144,7 @@
         <v>361</v>
       </c>
       <c r="C49" t="n">
-        <v>9.29585781631968</v>
+        <v>9.29585781634695</v>
       </c>
     </row>
     <row r="50">
@@ -6155,7 +6155,7 @@
         <v>361</v>
       </c>
       <c r="C50" t="n">
-        <v>9.24118279880013</v>
+        <v>9.24118279882568</v>
       </c>
     </row>
     <row r="51">
@@ -6166,7 +6166,7 @@
         <v>361</v>
       </c>
       <c r="C51" t="n">
-        <v>9.08076180535443</v>
+        <v>9.0807618053924</v>
       </c>
     </row>
   </sheetData>
